--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python Code\GPM_new_v16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDABC33-ACAC-416F-9808-97365AB39CE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550B4021-235C-40B2-9025-B54E524AF17B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{C40AFE06-37B4-4BCF-BFF7-E9072971672F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Brand1</t>
   </si>
@@ -60,9 +60,6 @@
     <t>E-1 Target</t>
   </si>
   <si>
-    <t>E-1Sales</t>
-  </si>
-  <si>
     <t>E-2 Target</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>Brands</t>
+  </si>
+  <si>
+    <t>E-1 Sales</t>
   </si>
 </sst>
 </file>
@@ -470,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{071DDFF6-6C48-49EB-9BDD-290240EA9F1A}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -483,25 +483,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -578,13 +578,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
         <v>25</v>
-      </c>
-      <c r="D5" s="2">
-        <v>10</v>
       </c>
       <c r="E5" s="2">
         <v>11</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -653,10 +653,10 @@
         <v>0</v>
       </c>
       <c r="D8" s="2">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8" s="2">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -675,22 +675,22 @@
       <c r="C9" s="3">
         <v>0</v>
       </c>
-      <c r="D9" s="2">
-        <v>23</v>
-      </c>
-      <c r="E9" s="2">
-        <v>30</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>44</v>
+      </c>
+      <c r="G9" s="2">
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
@@ -705,15 +705,15 @@
         <v>0</v>
       </c>
       <c r="F10" s="2">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G10" s="2">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3">
         <v>0</v>
@@ -728,32 +728,9 @@
         <v>0</v>
       </c>
       <c r="F11" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G11" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>34</v>
-      </c>
-      <c r="G12" s="2">
         <v>30</v>
       </c>
     </row>

--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python Code\GPM_new_v16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550B4021-235C-40B2-9025-B54E524AF17B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C58FF9D-84BD-4336-9AE4-DAF528536EBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{C40AFE06-37B4-4BCF-BFF7-E9072971672F}"/>
   </bookViews>
@@ -82,7 +82,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,14 +93,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -142,7 +134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -151,9 +143,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -473,7 +462,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D8" sqref="D8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -577,11 +566,11 @@
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0</v>
+      <c r="B5" s="2">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2">
+        <v>25</v>
       </c>
       <c r="D5" s="2">
         <v>25</v>
@@ -642,7 +631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -652,11 +641,11 @@
       <c r="C8" s="3">
         <v>0</v>
       </c>
-      <c r="D8" s="2">
-        <v>23</v>
-      </c>
-      <c r="E8" s="2">
-        <v>30</v>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -665,7 +654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -681,11 +670,11 @@
       <c r="E9" s="3">
         <v>0</v>
       </c>
-      <c r="F9" s="2">
-        <v>44</v>
-      </c>
-      <c r="G9" s="2">
-        <v>42</v>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
